--- a/data.xlsx
+++ b/data.xlsx
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="217" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="288" uniqueCount="136">
   <si>
     <t>Manzili</t>
   </si>
@@ -427,6 +427,15 @@
   </si>
   <si>
     <t>https://goo.gl/maps/FtQuii1dKDFFF3Zh6</t>
+  </si>
+  <si>
+    <t>Holati</t>
+  </si>
+  <si>
+    <t>HARD</t>
+  </si>
+  <si>
+    <t>SOFT</t>
   </si>
 </sst>
 </file>
@@ -809,7 +818,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -819,8 +828,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H71"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E3" sqref="E3"/>
+    <sheetView tabSelected="1" topLeftCell="B49" workbookViewId="0">
+      <selection activeCell="H54" sqref="H54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -857,7 +866,9 @@
       <c r="G1" s="5" t="s">
         <v>0</v>
       </c>
-      <c r="H1" s="1"/>
+      <c r="H1" s="1" t="s">
+        <v>133</v>
+      </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" s="8" t="s">
@@ -881,7 +892,9 @@
       <c r="G2" s="12" t="s">
         <v>63</v>
       </c>
-      <c r="H2" s="2"/>
+      <c r="H2" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" s="8" t="s">
@@ -905,7 +918,9 @@
       <c r="G3" s="12" t="s">
         <v>64</v>
       </c>
-      <c r="H3" s="2"/>
+      <c r="H3" s="2" t="s">
+        <v>135</v>
+      </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" s="8" t="s">
@@ -929,7 +944,9 @@
       <c r="G4" s="12" t="s">
         <v>65</v>
       </c>
-      <c r="H4" s="2"/>
+      <c r="H4" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
@@ -953,6 +970,9 @@
       <c r="G5" s="12" t="s">
         <v>66</v>
       </c>
+      <c r="H5" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" s="8" t="s">
@@ -976,6 +996,9 @@
       <c r="G6" s="12" t="s">
         <v>67</v>
       </c>
+      <c r="H6" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" s="8" t="s">
@@ -999,6 +1022,9 @@
       <c r="G7" s="12" t="s">
         <v>68</v>
       </c>
+      <c r="H7" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" s="8" t="s">
@@ -1022,6 +1048,9 @@
       <c r="G8" s="13" t="s">
         <v>69</v>
       </c>
+      <c r="H8" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" s="8" t="s">
@@ -1045,6 +1074,9 @@
       <c r="G9" s="12" t="s">
         <v>70</v>
       </c>
+      <c r="H9" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" s="8" t="s">
@@ -1068,6 +1100,9 @@
       <c r="G10" s="12" t="s">
         <v>71</v>
       </c>
+      <c r="H10" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" s="8" t="s">
@@ -1091,6 +1126,9 @@
       <c r="G11" s="12" t="s">
         <v>72</v>
       </c>
+      <c r="H11" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" s="8" t="s">
@@ -1114,6 +1152,9 @@
       <c r="G12" s="12" t="s">
         <v>73</v>
       </c>
+      <c r="H12" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
@@ -1137,6 +1178,9 @@
       <c r="G13" s="12" t="s">
         <v>74</v>
       </c>
+      <c r="H13" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
@@ -1160,6 +1204,9 @@
       <c r="G14" s="12" t="s">
         <v>75</v>
       </c>
+      <c r="H14" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" s="8" t="s">
@@ -1183,6 +1230,9 @@
       <c r="G15" s="12" t="s">
         <v>76</v>
       </c>
+      <c r="H15" s="2" t="s">
+        <v>134</v>
+      </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" s="8" t="s">
@@ -1206,8 +1256,11 @@
       <c r="G16" s="12" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H16" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A17" s="8" t="s">
         <v>19</v>
       </c>
@@ -1229,8 +1282,11 @@
       <c r="G17" s="12" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H17" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="8" t="s">
         <v>20</v>
       </c>
@@ -1252,8 +1308,11 @@
       <c r="G18" s="12" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H18" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A19" s="8" t="s">
         <v>21</v>
       </c>
@@ -1275,8 +1334,11 @@
       <c r="G19" s="12" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H19" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A20" s="8" t="s">
         <v>22</v>
       </c>
@@ -1298,8 +1360,11 @@
       <c r="G20" s="12" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H20" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A21" s="8" t="s">
         <v>23</v>
       </c>
@@ -1321,8 +1386,11 @@
       <c r="G21" s="12" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H21" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A22" s="8" t="s">
         <v>24</v>
       </c>
@@ -1344,8 +1412,11 @@
       <c r="G22" s="12" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H22" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A23" s="8" t="s">
         <v>25</v>
       </c>
@@ -1367,8 +1438,11 @@
       <c r="G23" s="12" t="s">
         <v>84</v>
       </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H23" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A24" s="8" t="s">
         <v>26</v>
       </c>
@@ -1390,8 +1464,11 @@
       <c r="G24" s="12" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H24" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A25" s="8" t="s">
         <v>27</v>
       </c>
@@ -1413,8 +1490,11 @@
       <c r="G25" s="12" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H25" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A26" s="8" t="s">
         <v>28</v>
       </c>
@@ -1436,8 +1516,11 @@
       <c r="G26" s="12" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H26" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A27" s="8" t="s">
         <v>29</v>
       </c>
@@ -1459,8 +1542,11 @@
       <c r="G27" s="12" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H27" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A28" s="8" t="s">
         <v>30</v>
       </c>
@@ -1482,8 +1568,11 @@
       <c r="G28" s="12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H28" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A29" s="8" t="s">
         <v>31</v>
       </c>
@@ -1505,8 +1594,11 @@
       <c r="G29" s="12" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H29" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A30" s="8" t="s">
         <v>32</v>
       </c>
@@ -1528,8 +1620,11 @@
       <c r="G30" s="12" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H30" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A31" s="8" t="s">
         <v>33</v>
       </c>
@@ -1551,8 +1646,11 @@
       <c r="G31" s="12" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H31" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A32" s="8" t="s">
         <v>34</v>
       </c>
@@ -1574,8 +1672,11 @@
       <c r="G32" s="12" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H32" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="33" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A33" s="8" t="s">
         <v>35</v>
       </c>
@@ -1597,8 +1698,11 @@
       <c r="G33" s="12" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H33" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="34" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A34" s="8" t="s">
         <v>36</v>
       </c>
@@ -1620,8 +1724,11 @@
       <c r="G34" s="12" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H34" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="35" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A35" s="8" t="s">
         <v>37</v>
       </c>
@@ -1643,8 +1750,11 @@
       <c r="G35" s="12" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H35" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="36" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A36" s="8" t="s">
         <v>38</v>
       </c>
@@ -1666,8 +1776,11 @@
       <c r="G36" s="12" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H36" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="37" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A37" s="8" t="s">
         <v>39</v>
       </c>
@@ -1689,8 +1802,11 @@
       <c r="G37" s="12" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H37" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="38" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A38" s="8" t="s">
         <v>40</v>
       </c>
@@ -1712,8 +1828,11 @@
       <c r="G38" s="12" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H38" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="39" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A39" s="8" t="s">
         <v>41</v>
       </c>
@@ -1735,8 +1854,11 @@
       <c r="G39" s="12" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H39" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="40" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A40" s="8" t="s">
         <v>42</v>
       </c>
@@ -1758,8 +1880,11 @@
       <c r="G40" s="12" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H40" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="41" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A41" s="8" t="s">
         <v>43</v>
       </c>
@@ -1781,8 +1906,11 @@
       <c r="G41" s="12" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H41" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="42" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A42" s="8" t="s">
         <v>44</v>
       </c>
@@ -1802,8 +1930,11 @@
       <c r="G42" s="12" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H42" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="43" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A43" s="8" t="s">
         <v>45</v>
       </c>
@@ -1825,8 +1956,11 @@
       <c r="G43" s="12" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H43" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="44" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A44" s="8" t="s">
         <v>46</v>
       </c>
@@ -1848,8 +1982,11 @@
       <c r="G44" s="12" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H44" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="45" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A45" s="8" t="s">
         <v>47</v>
       </c>
@@ -1871,8 +2008,11 @@
       <c r="G45" s="12" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H45" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="46" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A46" s="8" t="s">
         <v>48</v>
       </c>
@@ -1894,8 +2034,11 @@
       <c r="G46" s="12" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H46" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="47" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A47" s="8" t="s">
         <v>49</v>
       </c>
@@ -1917,8 +2060,11 @@
       <c r="G47" s="12" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H47" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="48" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A48" s="8" t="s">
         <v>50</v>
       </c>
@@ -1940,8 +2086,11 @@
       <c r="G48" s="12" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H48" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49" s="8" t="s">
         <v>51</v>
       </c>
@@ -1963,8 +2112,11 @@
       <c r="G49" s="12" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H49" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50" s="8" t="s">
         <v>52</v>
       </c>
@@ -1986,8 +2138,11 @@
       <c r="G50" s="12" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H50" s="2" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51" s="8" t="s">
         <v>53</v>
       </c>
@@ -2009,8 +2164,11 @@
       <c r="G51" s="12" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H51" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52" s="8" t="s">
         <v>45</v>
       </c>
@@ -2032,8 +2190,11 @@
       <c r="G52" s="12" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H52" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53" s="8" t="s">
         <v>46</v>
       </c>
@@ -2055,8 +2216,11 @@
       <c r="G53" s="12" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H53" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54" s="8" t="s">
         <v>47</v>
       </c>
@@ -2078,8 +2242,11 @@
       <c r="G54" s="12" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H54" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55" s="8" t="s">
         <v>48</v>
       </c>
@@ -2101,8 +2268,11 @@
       <c r="G55" s="12" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H55" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56" s="8" t="s">
         <v>49</v>
       </c>
@@ -2124,8 +2294,11 @@
       <c r="G56" s="12" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H56" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57" s="8" t="s">
         <v>50</v>
       </c>
@@ -2147,8 +2320,11 @@
       <c r="G57" s="12" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H57" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58" s="8" t="s">
         <v>51</v>
       </c>
@@ -2170,8 +2346,11 @@
       <c r="G58" s="12" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H58" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59" s="8" t="s">
         <v>52</v>
       </c>
@@ -2193,8 +2372,11 @@
       <c r="G59" s="12" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H59" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60" s="8" t="s">
         <v>53</v>
       </c>
@@ -2216,8 +2398,11 @@
       <c r="G60" s="12" t="s">
         <v>121</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H60" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61" s="8" t="s">
         <v>45</v>
       </c>
@@ -2239,8 +2424,11 @@
       <c r="G61" s="12" t="s">
         <v>122</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H61" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62" s="8" t="s">
         <v>46</v>
       </c>
@@ -2262,8 +2450,11 @@
       <c r="G62" s="12" t="s">
         <v>123</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H62" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63" s="8" t="s">
         <v>47</v>
       </c>
@@ -2285,8 +2476,11 @@
       <c r="G63" s="12" t="s">
         <v>124</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H63" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64" s="8" t="s">
         <v>48</v>
       </c>
@@ -2308,8 +2502,11 @@
       <c r="G64" s="12" t="s">
         <v>125</v>
       </c>
-    </row>
-    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H64" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="65" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A65" s="8" t="s">
         <v>49</v>
       </c>
@@ -2331,8 +2528,11 @@
       <c r="G65" s="12" t="s">
         <v>126</v>
       </c>
-    </row>
-    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H65" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="66" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A66" s="8" t="s">
         <v>50</v>
       </c>
@@ -2354,8 +2554,11 @@
       <c r="G66" s="12" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H66" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="67" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A67" s="8" t="s">
         <v>51</v>
       </c>
@@ -2377,8 +2580,11 @@
       <c r="G67" s="12" t="s">
         <v>128</v>
       </c>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H67" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="68" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A68" s="8" t="s">
         <v>52</v>
       </c>
@@ -2400,8 +2606,11 @@
       <c r="G68" s="12" t="s">
         <v>129</v>
       </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H68" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="69" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A69" s="8" t="s">
         <v>53</v>
       </c>
@@ -2423,8 +2632,11 @@
       <c r="G69" s="12" t="s">
         <v>130</v>
       </c>
-    </row>
-    <row r="70" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H69" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="70" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A70" s="8" t="s">
         <v>45</v>
       </c>
@@ -2446,8 +2658,11 @@
       <c r="G70" s="12" t="s">
         <v>131</v>
       </c>
-    </row>
-    <row r="71" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="H70" s="2" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="71" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A71" s="8" t="s">
         <v>46</v>
       </c>
@@ -2468,6 +2683,9 @@
       </c>
       <c r="G71" s="12" t="s">
         <v>132</v>
+      </c>
+      <c r="H71" s="2" t="s">
+        <v>135</v>
       </c>
     </row>
   </sheetData>
